--- a/biology/Botanique/Carpinus_orientalis/Carpinus_orientalis.xlsx
+++ b/biology/Botanique/Carpinus_orientalis/Carpinus_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpinus orientalis (le Charme d'Orient) est une espèce de plantes à fleurs de la famille des Betulaceae, originaire d'Europe du Sud-Est et d'Asie mineure.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carpinus duinensis Scop.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une sous-espèce est reconnue : Carpinus orientalis subsp. macrocarpa (Willk.) Browicz
 </t>
@@ -572,7 +588,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre qui atteint rarement 10 m de haut. Il affecte aussi des formes buissonnantes, en milieu très sec.
 Son tronc est lisse et gris. Le feuillage est caduc, sans couleur automnale particulière.
@@ -606,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est répandu en Europe du Sud-Est, en Italie et localement dans le nord du Moyen-Orient.
 Rare en France, on le trouve dans la région de Nice.
@@ -639,7 +659,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se prête  bien à la confection de haies (comme le charme commun) taillées ou non, ainsi qu'à la culture en bonsaï.
 </t>
